--- a/dup/dup_SD.xlsx
+++ b/dup/dup_SD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SD+Bantul/@-7.8053355,110.3375984,13z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -525,16 +519,15 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SD+Kulon+Progo/@-7.8053056,110.2139841,11z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,25 +550,24 @@
           <t>(0274) 618875</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.767121</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.767121</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.359125</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Rogoyudan/@-7.7671209,110.3230761,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af5f38f2d2957:0x4a1e32dfe48e9cac!8m2!3d-7.7671209!4d110.359125!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5r3d3b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Rogoyudan/@-7.7671209,110.3230761,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af5f38f2d2957:0x4a1e32dfe48e9cac!8m2!3d-7.7671209!4d110.359125!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5r3d3b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -602,25 +594,24 @@
           <t>(0274) 618875</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>-7.770938</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.770938</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.338129</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Nogotirto/@-7.7709379,110.3020799,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a587143e5bf83:0xf76f0836fdd8094c!8m2!3d-7.7709379!4d110.3381288!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm5dx780?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -639,25 +630,24 @@
           <t>(0274) 489170</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>-7.784484</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.784484</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.412057</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Catur+Tunggal+6/@-7.7844844,110.3760077,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59c30005db9f:0xb4cf446699dd11ad!8m2!3d-7.7844844!4d110.4120566!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzxfvsmv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -676,25 +666,24 @@
           <t>(0274) 489170</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.782537</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.782537</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.328176</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SDN+Banyuraden/@-7.7825367,110.2921267,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7af7e180a8a419:0xf1e4c01a69e61760!8m2!3d-7.7825367!4d110.3281756!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3b1wn0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -709,25 +698,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>-7.756848</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.756848</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.423177</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Timbulharjo+Depok/@-7.7606776,110.392962,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59853fcf361d:0x8c549add2b241b6c!8m2!3d-7.7568478!4d110.423177!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11k4k51n9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Timbulharjo+Depok/@-7.7606776,110.392962,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59853fcf361d:0x8c549add2b241b6c!8m2!3d-7.7568478!4d110.423177!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11k4k51n9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -746,25 +734,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>-7.773795</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.773795</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.412465</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Babarsari+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%A7%EA%A6%A7%EA%A6%82%EA%A6%B1%EA%A6%AB%EA%A6%B6/@-7.7737953,110.3764162,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59f204022bc7:0x2e002ee263f391!8m2!3d-7.7737953!4d110.4124651!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm3z1v17?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -783,25 +770,24 @@
           <t>(0274) 489272</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.2</v>
+        <v>-7.776557</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.776557</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.421478</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Corongan+%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A4%EA%A6%BC%EA%A6%92%EA%A6%BC%EA%A6%AB%EA%A6%B6%EA%A6%95%EA%A6%BA%EA%A6%B4%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%94%EA%A6%A4%EA%A7%80/@-7.7737953,110.3764162,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a24029f4a2f:0x3ab9a6662e273f4d!8m2!3d-7.776557!4d110.4214778!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzvbsb3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -820,25 +806,24 @@
           <t>(0274) 9232727</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.768741</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.768741</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.368246</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Muhammadiyah+Blunyah/@-7.7687415,110.3321967,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a584f151c31dd:0x8a1de3b308eee1aa!8m2!3d-7.7687415!4d110.3682456!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b6212hqk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -857,25 +842,24 @@
           <t>(0274) 489161</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.1</v>
+        <v>-7.780018</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.780018</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.410699</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Kledokan/@-7.7800185,110.3746505,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59eef7e5e2e1:0xb54b41d15320c1f7!8m2!3d-7.7800185!4d110.4106994!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm33nt57?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Kledokan/@-7.7800185,110.3746505,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59eef7e5e2e1:0xb54b41d15320c1f7!8m2!3d-7.7800185!4d110.4106994!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm33nt57?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -898,25 +882,24 @@
           <t>(0274) 489161</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.1</v>
+        <v>-7.753649</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.753649</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.358066</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Sinduadi+2/@-7.7536491,110.3220169,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58f5a22cbb45:0xc97cfeda8b2ed31c!8m2!3d-7.7536491!4d110.3580658!15sCglTRCBTbGVtYW6SAQZzY2hvb2zgAQA!16s%2Fg%2F1hm5vgthw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Sinduadi+2/@-7.7536491,110.3220169,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58f5a22cbb45:0xc97cfeda8b2ed31c!8m2!3d-7.7536491!4d110.3580658!15sCglTRCBTbGVtYW6SAQZzY2hvb2zgAQA!16s%2Fg%2F1hm5vgthw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -939,25 +922,24 @@
           <t>(0274) 627235</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.79035</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.79035</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.336367</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Kanoman/@-7.7903495,110.3003179,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58069cac925d:0x33ef31f8e0b94f8b!8m2!3d-7.7903495!4d110.3363668!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F11b64c8q7b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -980,25 +962,24 @@
           <t>(0274) 581479</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>-7.778086</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.778086</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.345191</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Demakijo+2/@-7.7903495,110.3003179,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5812e48a0829:0x5364c5ac2a506147!8m2!3d-7.7780865!4d110.3451908!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2h_j8p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1013,25 +994,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.9</v>
+        <v>-7.783439</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.783439</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.339645</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SDN+Patran/@-7.7834391,110.3035965,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a580ef6667c6b:0x18d3561664feca70!8m2!3d-7.7834391!4d110.3396454!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11dx9gjzwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SDN+Patran/@-7.7834391,110.3035965,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a580ef6667c6b:0x18d3561664feca70!8m2!3d-7.7834391!4d110.3396454!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F11dx9gjzwr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1050,25 +1030,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.9</v>
+        <v>-7.749415</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.749415</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.387008</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Kentungan/@-7.7494152,110.3509592,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59068f1ada15:0x22e3dd0272acb865!8m2!3d-7.7494152!4d110.3870081!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm4n5jkx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1091,25 +1070,24 @@
           <t>(0274) 544397</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>-7.7818</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.7818</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.394693</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+BOPKRI+Demangan+III/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59c414bea83f:0x11154b3e7ee0404f!8m2!3d-7.7817998!4d110.3946927!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzrqwjw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+BOPKRI+Demangan+III/@-7.7756539,110.3615064,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59c414bea83f:0x11154b3e7ee0404f!8m2!3d-7.7817998!4d110.3946927!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F1pzrqwjw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1136,25 +1114,24 @@
           <t>(0274) 544397</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.735947</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.735947</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.423008</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Model+Sleman/@-7.7359467,110.3869589,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a59617ea16d5f:0x4922407f50094724!8m2!3d-7.7359467!4d110.4230078!15sCglTRCBTbGVtYW6SARFlbGVtZW50YXJ5X3NjaG9vbOABAA!16s%2Fg%2F12ll8nfp9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1173,25 +1150,24 @@
           <t>(0274) 7481370</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>-7.790759</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.790759</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.41152</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Adisucipto+1/@-7.7907594,110.3754713,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a26a7580827:0x2afdaa9d4a0abf2e!8m2!3d-7.7907594!4d110.4115202!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlNYMTlNVURoUlJSQULgAQD6AQQIexA2!16s%2Fg%2F1pzs_kzvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Adisucipto+1/@-7.7907594,110.3754713,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5a26a7580827:0x2afdaa9d4a0abf2e!8m2!3d-7.7907594!4d110.4115202!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlNYMTlNVURoUlJSQULgAQD6AQQIexA2!16s%2Fg%2F1pzs_kzvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1214,25 +1190,24 @@
           <t>(0274) 7481370</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.7</v>
+        <v>-7.701938</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.701938</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.347145</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Negeri+Sleman+3/@-7.7019375,110.3110963,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f45b5d3d743:0xbd4defa98156e3d2!8m2!3d-7.7019375!4d110.3471452!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFjR1ZsUW05UlJSQULgAQD6AQQIABAg!16s%2Fg%2F11cn9dy4gq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1247,25 +1222,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.7</v>
+        <v>-7.744346</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.744346</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.418186</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Negeri+Malangrejo/@-7.744346,110.382137,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a597b0f1972eb:0x67e892d951af83dc!8m2!3d-7.744346!4d110.4181859!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnhlVXh1UzNaQlJSQULgAQD6AQQIABAr!16s%2Fg%2F1hm2sny6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Negeri+Malangrejo/@-7.744346,110.382137,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a597b0f1972eb:0x67e892d951af83dc!8m2!3d-7.744346!4d110.4181859!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnhlVXh1UzNaQlJSQULgAQD6AQQIABAr!16s%2Fg%2F1hm2sny6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1284,25 +1258,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>-7.696011</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.696011</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.345608</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SDN+Sleman+5/@-7.6960111,110.3095587,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5f42f6eef729:0x164e23acb7268590!8m2!3d-7.6960111!4d110.3456076!15sCglTRCBTbGVtYW6SAQ5wcmltYXJ5X3NjaG9vbOABAA!16s%2Fg%2F1hm2kt638?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1325,25 +1298,24 @@
           <t>(0274) 4477477</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.739953</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.739953</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.418367</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Salman+Al+Farisi+2/@-7.7288082,110.375849,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5964f2f0ae3b:0x64af435d95dcf7d2!8m2!3d-7.7399526!4d110.4183674!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmllWFZmWkZwbkVBReABAPoBBQjLAhAk!16s%2Fg%2F1hm27xf8c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Islam+Terpadu+Salman+Al+Farisi+2/@-7.7288082,110.375849,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a5964f2f0ae3b:0x64af435d95dcf7d2!8m2!3d-7.7399526!4d110.4183674!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmllWFZmWkZwbkVBReABAPoBBQjLAhAk!16s%2Fg%2F1hm27xf8c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>18 jam lalu</t>
         </is>
@@ -1370,25 +1342,24 @@
           <t>(0274) 4477477</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.6</v>
+        <v>-7.728509</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.728509</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.358017</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SD+Kanisius+Duwet/@-7.728509,110.3219679,14z/data=!4m10!1m2!2m1!1sSD+Sleman!3m6!1s0x2e7a58c6dea2280b:0xe2e62c7579d3e3bf!8m2!3d-7.728509!4d110.3580168!15sCglTRCBTbGVtYW5aCyIJc2Qgc2xlbWFukgERZWxlbWVudGFyeV9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUndaMkZQUnkxUlJSQULgAQD6AQQIfBAW!16s%2Fg%2F1hm3typlc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
